--- a/Dragonfall/gameData/shared/AllianceBuilding.xlsx
+++ b/Dragonfall/gameData/shared/AllianceBuilding.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="0" windowWidth="28420" windowHeight="20120" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="380" windowWidth="33760" windowHeight="20120" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
     <sheet name="shop" sheetId="5" r:id="rId2"/>
-    <sheet name="moonGate" sheetId="2" r:id="rId3"/>
+    <sheet name="watchTower" sheetId="2" r:id="rId3"/>
     <sheet name="orderHall" sheetId="3" r:id="rId4"/>
     <sheet name="shrine" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INT_defendingCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_power</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,52 +65,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1,dragonChest_2,vipActive_3,casinoTokenClass_2,quarterMaster_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1,dragonChest_2,vipActive_3,casinoTokenClass_2,quarterMaster_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1,dragonChest_2,vipActive_3,casinoTokenClass_2,quarterMaster_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,dragonHp_2,restoreWall_2,masterOfDefender_1,coinBonus_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1,dragonChest_2,vipActive_3,casinoTokenClass_2,quarterMaster_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,dragonHp_2,restoreWall_2,masterOfDefender_1,coinBonus_1,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1,dragonChest_2,vipActive_3,casinoTokenClass_2,quarterMaster_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,dragonHp_2,restoreWall_2,masterOfDefender_1,coinBonus_1,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,dragonChest_3,unitHpBonus_1,dragonHpBonus_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,retreatTroop,moveTheCity,vipActive_2,casinoTokenClass_1,dragonChest_2,vipActive_3,casinoTokenClass_2,quarterMaster_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,dragonHp_2,restoreWall_2,masterOfDefender_1,coinBonus_1,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,dragonChest_3,unitHpBonus_1,dragonHpBonus_1,troopSizeBonus_1,heroBlood_2,dragonExp_2,vipPoint_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1,movingConstruction,torch,changePlayerName,changeCityName,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,dragonChest_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_pRecoveryPerHour</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>INT_villageCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,marchSpeedBonus_1,troopSizeBonus_1</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,marchSpeedBonus_1,troopSizeBonus_1,woodClass_7,stoneClass_7,ironClass_7,foodClass_7</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,marchSpeedBonus_1,troopSizeBonus_1,woodClass_7,stoneClass_7,ironClass_7,foodClass_7,coinClass_7,sweepScroll</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,marchSpeedBonus_1,troopSizeBonus_1,woodClass_7,stoneClass_7,ironClass_7,foodClass_7,coinClass_7,sweepScroll,dragonChest_3,chest_4</t>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,marchSpeedBonus_1,troopSizeBonus_1,woodClass_7,stoneClass_7,ironClass_7,foodClass_7,coinClass_7,sweepScroll,dragonChest_3,chest_4,masterOfDefender_1,warSpeedupClass_1,warSpeedupClass_2</t>
   </si>
   <si>
     <t>INT_power</t>
@@ -225,8 +245,106 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="271">
+  <cellStyleXfs count="369">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -516,7 +634,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="271">
+  <cellStyles count="369">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -652,6 +770,55 @@
     <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -787,6 +954,55 @@
     <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1119,7 +1335,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1135,10 +1351,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -1146,13 +1362,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>5800</v>
+        <v>2040</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <v>860</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1160,13 +1376,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>11600</v>
+        <v>5508</v>
       </c>
       <c r="C3" s="2">
         <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>1725</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1174,13 +1390,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>23300</v>
+        <v>12240</v>
       </c>
       <c r="C4" s="2">
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>3450</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -1188,13 +1404,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>46700</v>
+        <v>18360</v>
       </c>
       <c r="C5" s="2">
         <v>14</v>
       </c>
       <c r="D5" s="2">
-        <v>6905</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -1202,13 +1418,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>178100</v>
+        <v>26928</v>
       </c>
       <c r="C6" s="2">
         <v>15</v>
       </c>
       <c r="D6" s="2">
-        <v>13810</v>
+        <v>897</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -1216,13 +1432,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>625100</v>
+        <v>45696</v>
       </c>
       <c r="C7" s="2">
         <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>27620</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -1230,13 +1446,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>1890700</v>
+        <v>75480</v>
       </c>
       <c r="C8" s="2">
         <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>63865</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -1244,13 +1460,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>3832100</v>
+        <v>124848</v>
       </c>
       <c r="C9" s="2">
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>120205</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -1258,13 +1474,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>7212400</v>
+        <v>192780</v>
       </c>
       <c r="C10" s="2">
         <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>237885</v>
+        <v>6426</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -1272,27 +1488,157 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>14273100</v>
+        <v>293760</v>
       </c>
       <c r="C11" s="2">
         <v>20</v>
       </c>
       <c r="D11" s="2">
-        <v>439260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15"/>
-    <row r="13" spans="1:4" ht="15"/>
-    <row r="14" spans="1:4" ht="15"/>
-    <row r="15" spans="1:4" ht="15"/>
-    <row r="16" spans="1:4" ht="15"/>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15"/>
-    <row r="19" ht="15"/>
-    <row r="20" ht="15"/>
-    <row r="21" ht="15"/>
-    <row r="22" ht="15"/>
-    <row r="23" ht="15"/>
+        <v>9792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>427788</v>
+      </c>
+      <c r="C12" s="2">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2">
+        <v>14259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>642600</v>
+      </c>
+      <c r="C13" s="2">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>21420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>924528</v>
+      </c>
+      <c r="C14" s="2">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2">
+        <v>30817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1351296</v>
+      </c>
+      <c r="C15" s="2">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1909440</v>
+      </c>
+      <c r="C16" s="2">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2">
+        <v>63648</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2741760</v>
+      </c>
+      <c r="C17" s="2">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2">
+        <v>91392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3815820</v>
+      </c>
+      <c r="C18" s="2">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2">
+        <v>127194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4830720</v>
+      </c>
+      <c r="C19" s="2">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2">
+        <v>161024</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5548800</v>
+      </c>
+      <c r="C20" s="2">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2">
+        <v>184960</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7344000</v>
+      </c>
+      <c r="C21" s="2">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2">
+        <v>244800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15"/>
+    <row r="23" spans="1:4" ht="15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1310,7 +1656,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1328,10 +1674,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15">
@@ -1339,153 +1685,283 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>4000</v>
+        <v>2210</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>8100</v>
+        <v>5967</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>16300</v>
+        <v>13260</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
-        <v>2415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>32600</v>
+        <v>19890</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
-        <v>4830</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>124600</v>
+        <v>29172</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>9665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="75">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>437500</v>
+        <v>49504</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
-        <v>19335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="75">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>1323500</v>
+      <c r="B8" s="2">
+        <v>81770</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2">
-        <v>44705</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="90">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>2682400</v>
+        <v>135252</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>84140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="90">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>5048600</v>
+        <v>208845</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>166515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="105">
+        <v>6961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="75">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>9991100</v>
+        <v>318240</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="75">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>463437</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>15447</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="90">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>696150</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>23205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="90">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1001572</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>33385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="90">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1463904</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2">
+        <v>48796</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="105">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2068560</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2">
+        <v>68952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="120">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2970240</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2">
+        <v>99008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="120">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4133805</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2">
+        <v>137793</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="120">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="D11" s="2">
-        <v>307480</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15"/>
-    <row r="13" spans="1:4" ht="15"/>
-    <row r="14" spans="1:4" ht="15"/>
-    <row r="15" spans="1:4" ht="15"/>
-    <row r="16" spans="1:4" ht="15"/>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15"/>
-    <row r="19" ht="15"/>
-    <row r="20" ht="15"/>
-    <row r="21" ht="15"/>
-    <row r="22" ht="15"/>
-    <row r="23" ht="15"/>
+      <c r="B19" s="2">
+        <v>5233280</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2">
+        <v>174442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="135">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6011200</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="2">
+        <v>200373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="135">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>7956000</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="2">
+        <v>265200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15"/>
+    <row r="23" spans="1:4" ht="15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1500,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1511,7 +1987,7 @@
     <col min="1" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1519,164 +1995,231 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>7200</v>
+        <v>2380</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>14500</v>
+        <v>6426</v>
       </c>
       <c r="C3" s="2">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>29100</v>
+        <v>14280</v>
       </c>
       <c r="C4" s="2">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>58300</v>
+        <v>21420</v>
       </c>
       <c r="C5" s="2">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>8630</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>222600</v>
+        <v>31416</v>
       </c>
       <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>17260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>781300</v>
+        <v>53312</v>
       </c>
       <c r="C7" s="2">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2">
-        <v>34525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>2363300</v>
+        <v>88060</v>
       </c>
       <c r="C8" s="2">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
-        <v>79835</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>4790100</v>
+      <c r="B9" s="2">
+        <v>145656</v>
       </c>
       <c r="C9" s="2">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2">
-        <v>150255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>9015500</v>
+        <v>224910</v>
       </c>
       <c r="C10" s="2">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2">
-        <v>297355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
+        <v>7497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>17841400</v>
+        <v>342720</v>
       </c>
       <c r="C11" s="2">
+        <v>11424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>499086</v>
+      </c>
+      <c r="C12" s="2">
+        <v>16636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>749700</v>
+      </c>
+      <c r="C13" s="2">
+        <v>24990</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1078616</v>
+      </c>
+      <c r="C14" s="2">
+        <v>35953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1576512</v>
+      </c>
+      <c r="C15" s="2">
+        <v>52550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="D11" s="2">
-        <v>549075</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15"/>
-    <row r="13" spans="1:4" ht="15"/>
-    <row r="14" spans="1:4" ht="15"/>
-    <row r="15" spans="1:4" ht="15"/>
-    <row r="16" spans="1:4" ht="15"/>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15"/>
-    <row r="19" ht="15"/>
-    <row r="20" ht="15"/>
-    <row r="21" ht="15"/>
-    <row r="22" ht="15"/>
-    <row r="23" ht="15"/>
+      <c r="B16" s="2">
+        <v>2227680</v>
+      </c>
+      <c r="C16" s="2">
+        <v>74256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3198720</v>
+      </c>
+      <c r="C17" s="2">
+        <v>106624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4451790</v>
+      </c>
+      <c r="C18" s="2">
+        <v>148393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5635840</v>
+      </c>
+      <c r="C19" s="2">
+        <v>187861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6473600</v>
+      </c>
+      <c r="C20" s="2">
+        <v>215786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>8568000</v>
+      </c>
+      <c r="C21" s="2">
+        <v>285600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15"/>
+    <row r="23" spans="1:3" ht="15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1694,7 +2237,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C19" sqref="C19:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1704,13 +2247,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1721,13 +2264,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>5200</v>
+        <v>2550</v>
       </c>
       <c r="C2" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>775</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -1735,13 +2278,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>10500</v>
+        <v>6885</v>
       </c>
       <c r="C3" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>1550</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -1749,13 +2292,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>21000</v>
+        <v>15300</v>
       </c>
       <c r="C4" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D4" s="2">
-        <v>3105</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -1763,13 +2306,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>42000</v>
+        <v>22950</v>
       </c>
       <c r="C5" s="3">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>6210</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -1777,13 +2320,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>160300</v>
+        <v>33660</v>
       </c>
       <c r="C6" s="3">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>12425</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -1791,13 +2334,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>562500</v>
+        <v>57120</v>
       </c>
       <c r="C7" s="3">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>24855</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
@@ -1805,13 +2348,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>1701600</v>
+        <v>94350</v>
       </c>
       <c r="C8" s="3">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2">
-        <v>57480</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -1819,13 +2362,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>3448900</v>
+        <v>156060</v>
       </c>
       <c r="C9" s="3">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2">
-        <v>108185</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
@@ -1833,13 +2376,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>6491100</v>
+        <v>240975</v>
       </c>
       <c r="C10" s="3">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2">
-        <v>214095</v>
+        <v>8032</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
@@ -1847,27 +2390,157 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>12845800</v>
+        <v>367200</v>
       </c>
       <c r="C11" s="3">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>534735</v>
+      </c>
+      <c r="C12" s="3">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2">
+        <v>17824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>803250</v>
+      </c>
+      <c r="C13" s="3">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <v>26775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1155660</v>
+      </c>
+      <c r="C14" s="3">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2">
+        <v>38522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1689120</v>
+      </c>
+      <c r="C15" s="3">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2">
+        <v>56304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2386800</v>
+      </c>
+      <c r="C16" s="3">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2">
+        <v>79560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3427200</v>
+      </c>
+      <c r="C17" s="3">
+        <v>28</v>
+      </c>
+      <c r="D17" s="2">
+        <v>114240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4769775</v>
+      </c>
+      <c r="C18" s="3">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2">
+        <v>158992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6038400</v>
+      </c>
+      <c r="C19" s="3">
+        <v>32</v>
+      </c>
+      <c r="D19" s="2">
+        <v>201280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6936000</v>
+      </c>
+      <c r="C20" s="3">
+        <v>34</v>
+      </c>
+      <c r="D20" s="2">
+        <v>231200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9180000</v>
+      </c>
+      <c r="C21" s="3">
         <v>36</v>
       </c>
-      <c r="D11" s="2">
-        <v>395330</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15"/>
-    <row r="13" spans="1:4" ht="15"/>
-    <row r="14" spans="1:4" ht="15"/>
-    <row r="15" spans="1:4" ht="15"/>
-    <row r="16" spans="1:4" ht="15"/>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15"/>
-    <row r="19" ht="15"/>
-    <row r="20" ht="15"/>
-    <row r="21" ht="15"/>
-    <row r="22" ht="15"/>
-    <row r="23" ht="15"/>
+      <c r="D21" s="2">
+        <v>306000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15"/>
+    <row r="23" spans="1:4" ht="15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1885,7 +2558,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1901,13 +2574,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -1915,16 +2588,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>4600</v>
+        <v>3060</v>
       </c>
       <c r="C2" s="2">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D2" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2">
-        <v>690</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -1932,16 +2605,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>9300</v>
+        <v>8262</v>
       </c>
       <c r="C3" s="2">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2">
-        <v>1380</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -1949,16 +2622,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>18600</v>
+        <v>18360</v>
       </c>
       <c r="C4" s="2">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="D4" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
-        <v>2760</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -1966,16 +2639,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>37300</v>
+        <v>27540</v>
       </c>
       <c r="C5" s="2">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D5" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
-        <v>5520</v>
+        <v>918</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -1983,16 +2656,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>142400</v>
+        <v>40392</v>
       </c>
       <c r="C6" s="2">
-        <v>350</v>
+        <v>225</v>
       </c>
       <c r="D6" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2">
-        <v>11045</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -2000,16 +2673,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>500000</v>
+        <v>68544</v>
       </c>
       <c r="C7" s="2">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="D7" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2">
-        <v>22095</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
@@ -2017,33 +2690,33 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>1512500</v>
+        <v>113220</v>
       </c>
       <c r="C8" s="2">
-        <v>450</v>
+        <v>275</v>
       </c>
       <c r="D8" s="2">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2">
-        <v>51095</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>3065700</v>
+      <c r="B9" s="2">
+        <v>187272</v>
       </c>
       <c r="C9" s="2">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D9" s="2">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E9" s="2">
-        <v>96165</v>
+        <v>6242</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15">
@@ -2051,16 +2724,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>5769900</v>
+        <v>289170</v>
       </c>
       <c r="C10" s="2">
-        <v>550</v>
+        <v>325</v>
       </c>
       <c r="D10" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2">
-        <v>190305</v>
+        <v>9639</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15">
@@ -2068,30 +2741,190 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>11418400</v>
+        <v>440640</v>
       </c>
       <c r="C11" s="2">
+        <v>350</v>
+      </c>
+      <c r="D11" s="2">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2">
+        <v>14688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>641682</v>
+      </c>
+      <c r="C12" s="2">
+        <v>375</v>
+      </c>
+      <c r="D12" s="2">
+        <v>16</v>
+      </c>
+      <c r="E12" s="2">
+        <v>21389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>963900</v>
+      </c>
+      <c r="C13" s="2">
+        <v>400</v>
+      </c>
+      <c r="D13" s="2">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2">
+        <v>32130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1386792</v>
+      </c>
+      <c r="C14" s="2">
+        <v>425</v>
+      </c>
+      <c r="D14" s="2">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2">
+        <v>46226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2026944</v>
+      </c>
+      <c r="C15" s="2">
+        <v>450</v>
+      </c>
+      <c r="D15" s="2">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2">
+        <v>67564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2864160</v>
+      </c>
+      <c r="C16" s="2">
+        <v>475</v>
+      </c>
+      <c r="D16" s="2">
+        <v>20</v>
+      </c>
+      <c r="E16" s="2">
+        <v>95472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>4112640</v>
+      </c>
+      <c r="C17" s="2">
+        <v>500</v>
+      </c>
+      <c r="D17" s="2">
+        <v>21</v>
+      </c>
+      <c r="E17" s="2">
+        <v>137088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5723730</v>
+      </c>
+      <c r="C18" s="2">
+        <v>525</v>
+      </c>
+      <c r="D18" s="2">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2">
+        <v>190791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>7246080</v>
+      </c>
+      <c r="C19" s="2">
+        <v>550</v>
+      </c>
+      <c r="D19" s="2">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2">
+        <v>241536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8323200</v>
+      </c>
+      <c r="C20" s="2">
+        <v>575</v>
+      </c>
+      <c r="D20" s="2">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2">
+        <v>277440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>11016000</v>
+      </c>
+      <c r="C21" s="2">
         <v>600</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D21" s="2">
         <v>25</v>
       </c>
-      <c r="E11" s="2">
-        <v>351405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15"/>
-    <row r="13" spans="1:5" ht="15"/>
-    <row r="14" spans="1:5" ht="15"/>
-    <row r="15" spans="1:5" ht="15"/>
-    <row r="16" spans="1:5" ht="15"/>
-    <row r="17" ht="15"/>
-    <row r="18" ht="15"/>
-    <row r="19" ht="15"/>
-    <row r="20" ht="15"/>
-    <row r="21" ht="15"/>
-    <row r="22" ht="15"/>
-    <row r="23" ht="15"/>
+      <c r="E21" s="2">
+        <v>367200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15"/>
+    <row r="23" spans="1:5" ht="15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Dragonfall/gameData/shared/AllianceBuilding.xlsx
+++ b/Dragonfall/gameData/shared/AllianceBuilding.xlsx
@@ -245,8 +245,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="369">
+  <cellStyleXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -634,7 +638,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="369">
+  <cellStyles count="373">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -819,6 +823,8 @@
     <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1003,6 +1009,8 @@
     <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2237,7 +2245,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C21"/>
+      <selection activeCell="E2" sqref="E2:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -2267,7 +2275,7 @@
         <v>2550</v>
       </c>
       <c r="C2" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>85</v>
@@ -2281,7 +2289,7 @@
         <v>6885</v>
       </c>
       <c r="C3" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>229</v>
@@ -2295,7 +2303,7 @@
         <v>15300</v>
       </c>
       <c r="C4" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>510</v>
@@ -2309,7 +2317,7 @@
         <v>22950</v>
       </c>
       <c r="C5" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>765</v>
@@ -2323,7 +2331,7 @@
         <v>33660</v>
       </c>
       <c r="C6" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
         <v>1122</v>
@@ -2337,7 +2345,7 @@
         <v>57120</v>
       </c>
       <c r="C7" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>1904</v>
@@ -2351,7 +2359,7 @@
         <v>94350</v>
       </c>
       <c r="C8" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>3145</v>
@@ -2365,7 +2373,7 @@
         <v>156060</v>
       </c>
       <c r="C9" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>5202</v>
@@ -2379,7 +2387,7 @@
         <v>240975</v>
       </c>
       <c r="C10" s="3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
         <v>8032</v>
@@ -2393,7 +2401,7 @@
         <v>367200</v>
       </c>
       <c r="C11" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>12240</v>
@@ -2407,7 +2415,7 @@
         <v>534735</v>
       </c>
       <c r="C12" s="3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2">
         <v>17824</v>
@@ -2421,7 +2429,7 @@
         <v>803250</v>
       </c>
       <c r="C13" s="3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2">
         <v>26775</v>
@@ -2435,7 +2443,7 @@
         <v>1155660</v>
       </c>
       <c r="C14" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
         <v>38522</v>
@@ -2449,7 +2457,7 @@
         <v>1689120</v>
       </c>
       <c r="C15" s="3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>56304</v>
@@ -2463,7 +2471,7 @@
         <v>2386800</v>
       </c>
       <c r="C16" s="3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>79560</v>
@@ -2477,7 +2485,7 @@
         <v>3427200</v>
       </c>
       <c r="C17" s="3">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>114240</v>
@@ -2491,7 +2499,7 @@
         <v>4769775</v>
       </c>
       <c r="C18" s="3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2">
         <v>158992</v>
@@ -2505,7 +2513,7 @@
         <v>6038400</v>
       </c>
       <c r="C19" s="3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2">
         <v>201280</v>
@@ -2519,7 +2527,7 @@
         <v>6936000</v>
       </c>
       <c r="C20" s="3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2">
         <v>231200</v>
@@ -2533,7 +2541,7 @@
         <v>9180000</v>
       </c>
       <c r="C21" s="3">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2">
         <v>306000</v>

--- a/Dragonfall/gameData/shared/AllianceBuilding.xlsx
+++ b/Dragonfall/gameData/shared/AllianceBuilding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="380" windowWidth="33760" windowHeight="20120" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1660" yWindow="800" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="palace" sheetId="1" r:id="rId1"/>
@@ -134,10 +134,11 @@
     <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,marchSpeedBonus_1,troopSizeBonus_1,woodClass_7,stoneClass_7,ironClass_7,foodClass_7,coinClass_7,sweepScroll,dragonChest_3,chest_4</t>
   </si>
   <si>
-    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,marchSpeedBonus_1,troopSizeBonus_1,woodClass_7,stoneClass_7,ironClass_7,foodClass_7,coinClass_7,sweepScroll,dragonChest_3,chest_4,masterOfDefender_1,warSpeedupClass_1,warSpeedupClass_2</t>
-  </si>
-  <si>
     <t>INT_power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodClass_3,stoneClass_3,ironClass_3,foodClass_3,coinClass_3,dragonChest_1,movingConstruction,torch,changePlayerName,retreatTroop,moveTheCity,vipActive_2,woodClass_4,stoneClass_4,ironClass_4,foodClass_4,coinClass_4,chest_2,restoreWall_1,woodBonus_1,stoneBonus_1,ironBonus_1,foodBonus_1,chest_3,casinoTokenClass_2,stamina_1,woodClass_5,stoneClass_5,ironClass_5,foodClass_5,coinClass_5,quarterMaster_1,dragonChest_2,chest_3,unitHpBonus_1,dragonExpBonus_1,woodClass_6,stoneClass_6,ironClass_6,foodClass_6,coinClass_6,casinoTokenClass_3,infantryAtkBonus_1,archerAtkBonus_1,cavalryAtkBonus_1,siegeAtkBonus_1,marchSpeedBonus_1,troopSizeBonus_1,woodClass_7,stoneClass_7,ironClass_7,foodClass_7,coinClass_7,sweepScroll,dragonChest_3,chest_4,masterOfDefender_1,warSpeedupClass_1,warSpeedupClass_2,fogOfTrick_1,casinoTokenClass_4,restoreWall_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,6 +640,193 @@
     </xf>
   </cellXfs>
   <cellStyles count="373">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -825,193 +1013,6 @@
     <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1663,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1954,7 +1955,7 @@
         <v>200373</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="135">
+    <row r="21" spans="1:4" ht="150">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>7956000</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>265200</v>
@@ -2003,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -2244,7 +2245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E24"/>
     </sheetView>
   </sheetViews>
